--- a/data/trans_dic/P19F$tarde-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19F$tarde-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2490482123825586</v>
+        <v>0.2516342728910373</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2379082182182091</v>
+        <v>0.2384933117302976</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2537138559314613</v>
+        <v>0.2502535063051337</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3417149739924346</v>
+        <v>0.3371227876057611</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3144920797459316</v>
+        <v>0.3189419790900899</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3116762948784744</v>
+        <v>0.314810490551947</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2867408782035394</v>
+        <v>0.2865450508605604</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3050338866287739</v>
+        <v>0.3003337289411719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.303818336189789</v>
+        <v>0.3027999833545842</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3428511099846621</v>
+        <v>0.3426788465065969</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3632818357400115</v>
+        <v>0.3620363934374591</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3443896654398582</v>
+        <v>0.3444224174100153</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2478798326684594</v>
+        <v>0.2432077037876538</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3162053398287911</v>
+        <v>0.3212035641097103</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2968501141984183</v>
+        <v>0.2989103044542328</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3726227346450037</v>
+        <v>0.3752990992547749</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4619328527861328</v>
+        <v>0.4531750305242358</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3921397382281943</v>
+        <v>0.3882124424688537</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.285284330376261</v>
+        <v>0.2844074139515729</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2982421198535887</v>
+        <v>0.3004481652022131</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.297884015422603</v>
+        <v>0.2990722426985452</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3308698576220674</v>
+        <v>0.329375154750655</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3425396561519497</v>
+        <v>0.3438874069819661</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.330657649324507</v>
+        <v>0.3321367374520798</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>97660</v>
+        <v>98674</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>126828</v>
+        <v>127140</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>234743</v>
+        <v>231541</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>133997</v>
+        <v>132197</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>167654</v>
+        <v>170026</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>288371</v>
+        <v>291271</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>324954</v>
+        <v>324732</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>306161</v>
+        <v>301443</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>649248</v>
+        <v>647072</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>388542</v>
+        <v>388347</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>364624</v>
+        <v>363374</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>735947</v>
+        <v>736017</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>60193</v>
+        <v>59058</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>64448</v>
+        <v>65467</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>132587</v>
+        <v>133507</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>90484</v>
+        <v>91134</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>94150</v>
+        <v>92365</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>175148</v>
+        <v>173394</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>504448</v>
+        <v>502897</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>519122</v>
+        <v>522962</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1045226</v>
+        <v>1049395</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>585054</v>
+        <v>582411</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>596227</v>
+        <v>598572</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1160223</v>
+        <v>1165413</v>
       </c>
     </row>
     <row r="20">
